--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158048.4153569888</v>
+        <v>153866.7047848507</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219457</v>
+        <v>33937088.13219456</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6710378.753666295</v>
+        <v>6710378.753666296</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5165010.498951044</v>
+        <v>5165010.498951045</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.08391054246</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796773</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>86.48122994455045</v>
+        <v>109.3473125889867</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>36.65442245703245</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -1223,7 +1223,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.88034699022666</v>
+        <v>119.0839105424609</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="D10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616406</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.8891084057988</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>91.32747982963546</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>167.4490654225685</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>307.1333353514036</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>138.1300418919259</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>57.79441202389363</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>208.2609885834556</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>186.8835669644652</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>81.30766987964064</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>224.9110624868349</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>376.752827063823</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>332.5294404877632</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>22.71789427119443</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>76.27908990958373</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>308.2985390234966</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>158.685170298864</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -2140,10 +2140,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>77.20378078338658</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>146.1924382374063</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>153.4400545567953</v>
       </c>
       <c r="F23" t="n">
-        <v>361.4649050157289</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2481,16 +2481,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>49.34995949258704</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>23.30082879511179</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>268.2368329361452</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>390.0798797578993</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>141.05024842887</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>43.97954181326757</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>208.0813547338446</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>194.7281928688467</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>93.00664472099429</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>76.27908990958373</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>175.4644608338681</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>268.3829272931353</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3192,10 +3192,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,7 +3204,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>54.31661462075042</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>135.9252640253261</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3325,13 +3325,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>224.285978493914</v>
+        <v>84.84259105082161</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>126.6928684552757</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>112.9192269198607</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>168.4758380718386</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.0072038731477</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>149.6157531058528</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>180.447977282574</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>113.3188936068766</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>52.39553255487393</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.0125566459574</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0178285439546</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,7 +4152,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.09228531058704</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>249.3463070821271</v>
+        <v>129.0595287564099</v>
       </c>
       <c r="C8" t="n">
-        <v>215.2442383059544</v>
+        <v>94.95745998023726</v>
       </c>
       <c r="D8" t="n">
-        <v>183.374857520803</v>
+        <v>63.08807919508584</v>
       </c>
       <c r="E8" t="n">
-        <v>153.6405167195022</v>
+        <v>33.35373839378508</v>
       </c>
       <c r="F8" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G8" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396803</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585545</v>
+        <v>23.57954741585568</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306557983</v>
+        <v>55.41632306558038</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318062</v>
+        <v>103.1313969318071</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183082</v>
+        <v>162.3261653183096</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590913</v>
+        <v>228.1917507590932</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326558</v>
+        <v>295.1231102326582</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336396</v>
+        <v>358.3244950336424</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455638</v>
+        <v>412.2654147455671</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244978</v>
+        <v>452.7727990245014</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698401</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698401</v>
+        <v>401.4050834648259</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698401</v>
+        <v>281.1183051391077</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698401</v>
+        <v>281.1183051391077</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698401</v>
+        <v>281.1183051391077</v>
       </c>
       <c r="W8" t="n">
-        <v>388.980864448072</v>
+        <v>170.6664742411414</v>
       </c>
       <c r="X8" t="n">
-        <v>373.8788050677867</v>
+        <v>155.5644148608562</v>
       </c>
       <c r="Y8" t="n">
-        <v>369.6330854078442</v>
+        <v>151.3186952009137</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>388.5777159170859</v>
+        <v>198.7374163698899</v>
       </c>
       <c r="C9" t="n">
-        <v>282.1212547537282</v>
+        <v>198.7374163698899</v>
       </c>
       <c r="D9" t="n">
-        <v>187.0309659002815</v>
+        <v>103.6471275164432</v>
       </c>
       <c r="E9" t="n">
-        <v>92.91055122723519</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396803</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396803</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396803</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I9" t="n">
-        <v>42.5004579116043</v>
+        <v>42.50045791160444</v>
       </c>
       <c r="J9" t="n">
-        <v>61.46222338483241</v>
+        <v>67.70899752367932</v>
       </c>
       <c r="K9" t="n">
-        <v>93.8709007641481</v>
+        <v>100.1176749029952</v>
       </c>
       <c r="L9" t="n">
-        <v>137.4483669798371</v>
+        <v>143.6951411186846</v>
       </c>
       <c r="M9" t="n">
-        <v>188.3012146372527</v>
+        <v>194.5479887761005</v>
       </c>
       <c r="N9" t="n">
-        <v>240.4999858547891</v>
+        <v>246.7467599936375</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2516636611215</v>
+        <v>294.4984377999702</v>
       </c>
       <c r="P9" t="n">
-        <v>326.5765949629833</v>
+        <v>332.8233691018323</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328047</v>
+        <v>358.4425707328074</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698401</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698401</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698401</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="U9" t="n">
-        <v>476.3356421698401</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="V9" t="n">
-        <v>476.3356421698401</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="W9" t="n">
-        <v>476.3356421698401</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="X9" t="n">
-        <v>476.3356421698401</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="Y9" t="n">
-        <v>388.5777159170859</v>
+        <v>235.7620855184075</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.3870478205484</v>
+        <v>129.813491169115</v>
       </c>
       <c r="C10" t="n">
-        <v>370.3870478205484</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="D10" t="n">
-        <v>250.1002694948312</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="E10" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="F10" t="n">
-        <v>129.813491169114</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396803</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396803</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396803</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642494</v>
+        <v>21.42271513642511</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137666</v>
+        <v>40.97150121137699</v>
       </c>
       <c r="L10" t="n">
-        <v>84.78409652620407</v>
+        <v>65.9872169758342</v>
       </c>
       <c r="M10" t="n">
-        <v>202.6771679632395</v>
+        <v>183.8802884128705</v>
       </c>
       <c r="N10" t="n">
-        <v>320.5702394002749</v>
+        <v>301.7733598499069</v>
       </c>
       <c r="O10" t="n">
-        <v>344.3530661524932</v>
+        <v>325.5561866021253</v>
       </c>
       <c r="P10" t="n">
-        <v>462.2461375895286</v>
+        <v>443.4492580391616</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698401</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698401</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698401</v>
+        <v>342.3502491207275</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698401</v>
+        <v>342.3502491207275</v>
       </c>
       <c r="U10" t="n">
-        <v>476.3356421698401</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="V10" t="n">
-        <v>476.3356421698401</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="W10" t="n">
-        <v>370.3870478205484</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="X10" t="n">
-        <v>370.3870478205484</v>
+        <v>129.813491169115</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.3870478205484</v>
+        <v>129.813491169115</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>2191.18710732393</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W11" t="n">
-        <v>2191.18710732393</v>
+        <v>2009.625515388389</v>
       </c>
       <c r="X11" t="n">
-        <v>2191.18710732393</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y11" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5162,10 +5162,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.5506608361497</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9889493193747</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D13" t="n">
-        <v>589.1109565208974</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>419.3529527716346</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.558898871145</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1592.180704907616</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1346.788950241029</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1119.369279555137</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.2588091910869</v>
+        <v>695.7136592983148</v>
       </c>
       <c r="C14" t="n">
-        <v>483.1163363745102</v>
+        <v>257.5711864817382</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895474</v>
+        <v>257.5711864817382</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2171.556297685651</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1766.700843096684</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X14" t="n">
-        <v>1347.558379675995</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y14" t="n">
-        <v>1347.558379675995</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>299.093514772602</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>216.9645552982175</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5445,10 +5445,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1532.898990326702</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="C17" t="n">
-        <v>1532.898990326702</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D17" t="n">
-        <v>1096.989205501146</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E17" t="n">
-        <v>1096.989205501146</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5536,7 +5536,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.185114027048</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="Y17" t="n">
-        <v>1532.898990326702</v>
+        <v>1190.980360647176</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043086</v>
@@ -5600,7 +5600,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>959.9477806029472</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C19" t="n">
-        <v>787.3860690861721</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D19" t="n">
-        <v>621.5080762876948</v>
+        <v>411.6021539253816</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7500725384321</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
@@ -5709,16 +5709,16 @@
         <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1896.604229088122</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W19" t="n">
-        <v>1624.577824674414</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>1379.186070007826</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y19" t="n">
-        <v>1151.766399321934</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.485634438364</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C20" t="n">
-        <v>1889.485634438364</v>
+        <v>643.4043871814436</v>
       </c>
       <c r="D20" t="n">
-        <v>1578.072968758064</v>
+        <v>207.494602355888</v>
       </c>
       <c r="E20" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867028</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.55632591685</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438364</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1889.485634438364</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>1889.485634438364</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>1889.485634438364</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y20" t="n">
-        <v>1889.485634438364</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235827</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,52 +5886,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.655226289377</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C22" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D22" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>301.8972225401143</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>125.1901685018705</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>1019.751453776091</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M22" t="n">
-        <v>1160.879221014856</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818746</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392289</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
@@ -5940,22 +5940,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1081.546859998021</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="C23" t="n">
-        <v>1081.546859998021</v>
+        <v>1307.330533248896</v>
       </c>
       <c r="D23" t="n">
-        <v>1081.546859998021</v>
+        <v>871.4207484233402</v>
       </c>
       <c r="E23" t="n">
-        <v>1081.546859998021</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
         <v>716.4307943255671</v>
@@ -5983,58 +5983,58 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2108.089956131647</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>1849.019264653161</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.402314586987</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W23" t="n">
-        <v>1081.546859998021</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X23" t="n">
-        <v>1081.546859998021</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y23" t="n">
-        <v>1081.546859998021</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="24">
@@ -6050,34 +6050,34 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851425</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C25" t="n">
-        <v>443.5200532683674</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364613</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871986</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895475</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092384</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041296</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="C26" t="n">
-        <v>1849.01926465316</v>
+        <v>1710.413853100273</v>
       </c>
       <c r="D26" t="n">
-        <v>1578.072968758064</v>
+        <v>1274.504068274717</v>
       </c>
       <c r="E26" t="n">
-        <v>1144.298223916359</v>
+        <v>840.7293234330123</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W26" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X26" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y26" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.291841223631</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7301297068562</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="D28" t="n">
-        <v>753.852136908379</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
@@ -6387,16 +6387,16 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
         <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O28" t="n">
         <v>2173.32015736263</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>2315.903797838376</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>2028.948289708806</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W28" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1081.546859998021</v>
+        <v>1530.944687111453</v>
       </c>
       <c r="C29" t="n">
-        <v>643.404387181444</v>
+        <v>1092.802214294876</v>
       </c>
       <c r="D29" t="n">
-        <v>643.404387181444</v>
+        <v>656.8924294693206</v>
       </c>
       <c r="E29" t="n">
-        <v>643.404387181444</v>
+        <v>656.8924294693206</v>
       </c>
       <c r="F29" t="n">
-        <v>643.404387181444</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>243.9016958609212</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6484,31 +6484,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.019264653161</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.402314586987</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W29" t="n">
-        <v>1081.546859998021</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X29" t="n">
-        <v>1081.546859998021</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y29" t="n">
-        <v>1081.546859998021</v>
+        <v>1957.244257596361</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>959.9477806029472</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C31" t="n">
-        <v>787.3860690861721</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D31" t="n">
-        <v>621.5080762876948</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E31" t="n">
-        <v>451.7500725384321</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F31" t="n">
-        <v>275.0430185001883</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>744.992999204955</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1896.604229088122</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.577824674414</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X31" t="n">
-        <v>1379.186070007826</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y31" t="n">
-        <v>1151.766399321934</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>717.8031088221395</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C32" t="n">
-        <v>717.8031088221395</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D32" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E32" t="n">
         <v>446.7092428694776</v>
@@ -6691,22 +6691,22 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V32" t="n">
-        <v>1957.244257596361</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W32" t="n">
-        <v>1552.388803007394</v>
+        <v>1915.005753073568</v>
       </c>
       <c r="X32" t="n">
-        <v>1552.388803007394</v>
+        <v>1495.863289652878</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.102679307047</v>
+        <v>1495.863289652878</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.196554659879</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C34" t="n">
-        <v>856.6348431431041</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D34" t="n">
-        <v>690.7568503446269</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="E34" t="n">
-        <v>520.9988465953642</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="F34" t="n">
-        <v>344.2917925571204</v>
+        <v>266.8129992301236</v>
       </c>
       <c r="G34" t="n">
-        <v>179.5506121696388</v>
+        <v>102.071818842642</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>688.1212571728195</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2223.029330957509</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>1980.782106860915</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U34" t="n">
-        <v>1980.782106860915</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V34" t="n">
-        <v>1693.826598731346</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1693.826598731346</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>446.7092428694776</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6973,16 +6973,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X35" t="n">
-        <v>854.9953665698242</v>
+        <v>1763.319677733138</v>
       </c>
       <c r="Y35" t="n">
-        <v>446.7092428694776</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>807.9003835041287</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
         <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.4344430832</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O37" t="n">
         <v>1657.620488527956</v>
@@ -7131,16 +7131,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1463.186063953456</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1025.043591136879</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>589.1338063113235</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>589.1338063113235</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>161.2663767205312</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V38" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>896.8524940391952</v>
+        <v>894.4683967363985</v>
       </c>
       <c r="C40" t="n">
         <v>724.2907825224202</v>
@@ -7323,34 +7323,34 @@
         <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>326.7831174369941</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>910.964192855309</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1480.721907816843</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O40" t="n">
-        <v>2018.157038390387</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7362,22 +7362,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>2081.94094549648</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.98543736691</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W40" t="n">
-        <v>1522.959032953202</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.567278286614</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y40" t="n">
-        <v>1088.671112758182</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>316.9281030050443</v>
+        <v>1934.028006962829</v>
       </c>
       <c r="C41" t="n">
-        <v>316.9281030050443</v>
+        <v>1495.885534146253</v>
       </c>
       <c r="D41" t="n">
-        <v>316.9281030050443</v>
+        <v>1059.975749320697</v>
       </c>
       <c r="E41" t="n">
-        <v>316.9281030050443</v>
+        <v>626.2010044789922</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>198.3335748882</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7444,19 +7444,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.639935903077</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>1333.784481314111</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X41" t="n">
-        <v>1151.513797190299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y41" t="n">
-        <v>743.2276734899522</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.5338374743685</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="C43" t="n">
-        <v>749.9721259575934</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D43" t="n">
-        <v>584.0941331591162</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,22 +7572,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092381</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7602,19 +7602,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1859.190285959543</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1859.190285959543</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.163881545835</v>
+        <v>1355.386894416093</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.772126879247</v>
+        <v>1109.995139749506</v>
       </c>
       <c r="Y43" t="n">
-        <v>1114.352456193356</v>
+        <v>882.575469063614</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.4127897239429</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C46" t="n">
-        <v>558.4127897239429</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>558.4127897239429</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2302.658602386538</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2060.411378289944</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1782.024746338687</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1495.069238209118</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1223.042833795409</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>977.6510791288217</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y46" t="n">
-        <v>750.2314084429299</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.30987286752184</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.309872867521676</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946626</v>
+        <v>106.4970253946634</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>18.98674702057616</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442486</v>
+        <v>92.44192588442554</v>
       </c>
       <c r="N10" t="n">
-        <v>93.07541273182926</v>
+        <v>93.07541273182997</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912247</v>
+        <v>98.52803488912321</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>18.98674702057633</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032071</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>177.1920849464598</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9330,16 +9330,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>70.05088382580948</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032072</v>
       </c>
       <c r="M22" t="n">
-        <v>10.62967161639995</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042872</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10041,13 +10041,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>192.4544649334022</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>192.4544649334029</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>141.4680432173438</v>
+        <v>177.1920849464607</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10755,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464594</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>156.7304232042866</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>192.4544649334027</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,16 +23317,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>191.5417151429432</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>93.67356469167339</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>32.70605250968137</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>211.5117283456777</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>221.1760088098322</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23548,19 +23548,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>172.1072136010465</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.91154299085188</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>18.02677463308675</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>46.8359282310613</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>68.27745955531378</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>145.3425294405757</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>207.8068631386901</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>123.2521479538033</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>270.7518270944238</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>85.88998780022018</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>93.6323136182211</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>275.9969428364924</v>
       </c>
       <c r="F23" t="n">
-        <v>62.12385027915542</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>114.8692533779055</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.0053115744596</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>163.3138540411547</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>33.50887553698499</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>23.16896444162256</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>231.6232238184768</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>215.5074005610397</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>72.2961430726819</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>75.05377899077583</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>207.8068631386901</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>246.5721139461905</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>163.1677596841646</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24976,16 +24976,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>76.70400539372685</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.057009085481724</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>190.6650602925684</v>
+        <v>330.1084477356608</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>44.14322594633164</v>
       </c>
       <c r="D37" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>282.5884374874569</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>100.0994919970775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.36025632976876</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.13827010588514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>245.8919113014648</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>234.5030615039084</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>162.2838720248678</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>216.9106078146974</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>265.3352856806297</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>108.1907058173857</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>83.88260398784263</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>85.88998780022078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>636888.4248871447</v>
+        <v>636888.4248871448</v>
       </c>
     </row>
     <row r="5">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>388366.8834315538</v>
+        <v>388366.8834315537</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>388366.8834315537</v>
+        <v>388366.8834315538</v>
       </c>
     </row>
     <row r="13">
@@ -26328,31 +26328,31 @@
         <v>180892.2069959399</v>
       </c>
       <c r="G2" t="n">
+        <v>180892.20699594</v>
+      </c>
+      <c r="H2" t="n">
         <v>180892.2069959399</v>
       </c>
-      <c r="H2" t="n">
-        <v>180892.20699594</v>
-      </c>
       <c r="I2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="J2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="K2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="L2" t="n">
+        <v>180892.20699594</v>
+      </c>
+      <c r="M2" t="n">
         <v>180892.2069959399</v>
       </c>
-      <c r="M2" t="n">
-        <v>180892.20699594</v>
-      </c>
       <c r="N2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="O2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="P2" t="n">
         <v>180892.20699594</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573057</v>
+        <v>117708.4675730579</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018045</v>
+        <v>439858.2450180441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310173</v>
+        <v>30139.06600310201</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597483</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>273429.5531546638</v>
+        <v>273429.5531546636</v>
       </c>
       <c r="E4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="F4" t="n">
         <v>19185.36025012662</v>
       </c>
       <c r="G4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="H4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="I4" t="n">
         <v>19185.36025012662</v>
@@ -26447,13 +26447,13 @@
         <v>19185.36025012663</v>
       </c>
       <c r="L4" t="n">
-        <v>19185.36025012661</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="M4" t="n">
         <v>19185.36025012662</v>
       </c>
       <c r="N4" t="n">
-        <v>19185.36025012661</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="O4" t="n">
         <v>19185.36025012662</v>
@@ -26475,37 +26475,37 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.5622723923</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="G5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="G5" t="n">
-        <v>46051.08120963783</v>
-      </c>
-      <c r="H5" t="n">
-        <v>46051.08120963783</v>
-      </c>
       <c r="I5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="L5" t="n">
         <v>46051.08120963783</v>
       </c>
-      <c r="L5" t="n">
-        <v>46051.08120963782</v>
-      </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770409</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020247</v>
+        <v>-31444.05911770409</v>
       </c>
       <c r="D6" t="n">
-        <v>-125775.8740631282</v>
+        <v>-125775.8740631291</v>
       </c>
       <c r="E6" t="n">
-        <v>-324202.4794818695</v>
+        <v>-324756.3599250906</v>
       </c>
       <c r="F6" t="n">
-        <v>115655.7655361755</v>
+        <v>115101.8850929536</v>
       </c>
       <c r="G6" t="n">
-        <v>115655.7655361754</v>
+        <v>115101.8850929536</v>
       </c>
       <c r="H6" t="n">
-        <v>115655.7655361755</v>
+        <v>115101.8850929535</v>
       </c>
       <c r="I6" t="n">
-        <v>115655.7655361756</v>
+        <v>115101.8850929536</v>
       </c>
       <c r="J6" t="n">
-        <v>115655.7655361756</v>
+        <v>115101.8850929535</v>
       </c>
       <c r="K6" t="n">
-        <v>115655.7655361755</v>
+        <v>115101.8850929535</v>
       </c>
       <c r="L6" t="n">
-        <v>85516.69953307374</v>
+        <v>84962.81908985153</v>
       </c>
       <c r="M6" t="n">
-        <v>-1718.816023572741</v>
+        <v>-2272.696466794413</v>
       </c>
       <c r="N6" t="n">
-        <v>115655.7655361756</v>
+        <v>115101.8850929535</v>
       </c>
       <c r="O6" t="n">
-        <v>115655.7655361755</v>
+        <v>115101.8850929535</v>
       </c>
       <c r="P6" t="n">
-        <v>115655.7655361755</v>
+        <v>115101.8850929536</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480405</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
         <v>466.7019280932212</v>
@@ -26795,37 +26795,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="G4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="G4" t="n">
-        <v>590.0818943619344</v>
-      </c>
-      <c r="H4" t="n">
-        <v>590.0818943619344</v>
-      </c>
       <c r="I4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619344</v>
       </c>
-      <c r="L4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480405</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184171</v>
+        <v>372.4514459184164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424599</v>
+        <v>119.0839105424611</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.9526642375986</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.2745696021319</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179678</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.12402527515964</v>
       </c>
       <c r="U8" t="n">
         <v>256.599767943293</v>
@@ -27915,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>314.3256700985265</v>
+        <v>291.4595874540904</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>83.43643961193307</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809193</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656967</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -27991,7 +27991,7 @@
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.0424322161597</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.34057443834476</v>
+        <v>6.137010886110474</v>
       </c>
     </row>
     <row r="10">
@@ -28013,25 +28013,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914637</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13530232803249</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>48.97651316931008</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>44.68149179608158</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742793</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616412</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.60310718843876</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>156.5554896577344</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>164.4170319637726</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>151.6103572902862</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529808</v>
+        <v>0.3788964107529838</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623966</v>
+        <v>3.880372866623996</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555431</v>
+        <v>14.60740387555442</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214583</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931952</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990107</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462939</v>
+        <v>66.53089438462992</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116813</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725635</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679212</v>
+        <v>54.48577748679255</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670098</v>
+        <v>40.91654977670131</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196195</v>
+        <v>23.80085166196214</v>
       </c>
       <c r="S8" t="n">
-        <v>8.63410196003356</v>
+        <v>8.634101960033627</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071174</v>
+        <v>1.658619038071187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023846</v>
+        <v>0.0303117128602387</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250502</v>
+        <v>0.2027274522250518</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857722</v>
+        <v>1.957920393857738</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888791</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780617</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688454</v>
+        <v>32.73603775688479</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211014</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852682</v>
+        <v>51.3665127852686</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286515</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2340179861943</v>
+        <v>48.23401798619467</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006244</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542922</v>
+        <v>25.87798144542942</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779742</v>
+        <v>12.58688514779752</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531084</v>
+        <v>3.765573509531114</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457065</v>
+        <v>0.817133897345713</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322699</v>
+        <v>0.0133373323832271</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889909</v>
+        <v>0.1699598858889922</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540302</v>
+        <v>1.511097894540314</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643473</v>
+        <v>5.111157295643513</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235166</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.7462485605573</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.2683997620778</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803518</v>
+        <v>26.64198465803539</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063078</v>
+        <v>26.00849781063098</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547301</v>
+        <v>24.0230573254732</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333758</v>
+        <v>20.55587565333774</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839541</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517715</v>
+        <v>7.642014505517776</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083595</v>
+        <v>2.961937284083618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075063</v>
+        <v>0.726192239707512</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308605</v>
+        <v>0.009270539230308678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32478,13 +32478,13 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766678</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,10 +32545,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,13 +32703,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -32718,10 +32718,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,19 +32888,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,10 +33493,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33754,22 +33754,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,19 +33967,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33988,7 +33988,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917233</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642291</v>
+        <v>14.19478239642302</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214583</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931954</v>
+        <v>48.19704430931991</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990106</v>
+        <v>59.79269533990156</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462939</v>
+        <v>66.5308943846299</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168129</v>
+        <v>67.60743381168186</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725634</v>
+        <v>63.8397826272568</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679213</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.916549776701</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196199</v>
+        <v>23.80085166196204</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.3068132002096</v>
+        <v>33.30681320020966</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780617</v>
+        <v>25.46317132532816</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688454</v>
+        <v>32.73603775688478</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211013</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526821</v>
+        <v>51.36651278526861</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286514</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619432</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006241</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.18785431295089</v>
+        <v>25.87798144542944</v>
       </c>
       <c r="R9" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235165</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.7462485605573</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>44.25514678265395</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="N10" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547302</v>
+        <v>24.02305732547319</v>
       </c>
       <c r="P10" t="n">
-        <v>119.08391054246</v>
+        <v>119.083910542461</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839541</v>
+        <v>33.21856982897185</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35500,10 +35500,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030955</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35737,19 +35737,19 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,19 +35813,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36044,25 +36044,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>198.8376634256979</v>
+        <v>305.9788645463486</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36123,19 +36123,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766678</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447063</v>
+        <v>300.8399982398718</v>
       </c>
       <c r="M22" t="n">
-        <v>142.5533002411771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
@@ -36299,7 +36299,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409518</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619344</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>324.3780935581794</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
@@ -36831,16 +36831,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>324.3780935581801</v>
+        <v>307.6416050279844</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>260.4234789221539</v>
+        <v>296.1475206512705</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>305.9788645463482</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512694</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>305.9788645463482</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>258.5173486362901</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409515</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,16 +38016,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>324.3780935581799</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
